--- a/biology/Zoologie/Heterotardigrada/Heterotardigrada.xlsx
+++ b/biology/Zoologie/Heterotardigrada/Heterotardigrada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Heterotardigrada, Hétérotardigrades en français, sont une classe de l'embranchement des tardigrades ou oursons d'eau, caractérisés par des appendices remarquables sur la tête, ou des plaquettes dures de blindage sur le dos (sclérites).
 Ils ont été décrits en 1927 par le zoologiste brésilien d'origine allemande Ernesto Marcus (1893–1968), et comprennent aussi bien des espèces marines que des espèces terrestres ou d'eau douce (limno-terrestres). Les formes marines en particulier se distinguent par une grande multiplicité d'espèces, et une grande variabilité de forme du corps parmi les tardigrades.
@@ -512,21 +524,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tardigrades sont dans l'ensemble un groupe animal très homogène, dont la structure corporelle ne  varie que dans d'étroites limites. Par la suite, il ne sera mentionné que les caractères distinctifs des hétérotardigrades, caractéristiques de cette classe. On  trouvera une analyse plus détaillée de l'anatomie dans l'article sur les tardigrades. La plupart des hétérotardigrades atteignent une longueur du corps entre 100  et   150 μm.
-Cuticule
-Un des caractères les plus remarquables de bien des hétérotardigrades sont des indurations de l'extérieur de la peau, la cuticule sans cellules, que l'on trouve en particulier dans l'ordre limno-terrestre des Echiniscoidea, mais en partie aussi chez d'autres espèces de l’ordre des arthrotardigrades. Ces indurations forment un arrangement de petites plaques sur le dos, les sclérites, que l'on peut considérer comme un blindage du corps, et qui portent souvent des protubérances épineuses. Le nombre et l'agencement exacts des plaques, qui peuvent aussi en partie se joindre, est un critère important pour la détermination des espèces. Au sein du genre Testechiniscus, on trouve en plus des plaques ventrales, que l'on appelle alors sternites. 
-La structure fine microscopique de la cuticule est aussi typique des hétérotardigrades : dans une couche nommée épicuticule, on trouve des « piliers » caractéristiques, entourés d'espaces vides, si bien que la coupe présente une structure en nid d'abeilles, ce qui raidit encore la peau externe. Les hétérotardigrades marins sont incolores, tandis que les terrestres peuvent souvent être colorés par leur nourriture ou des pigments spéciaux.
-Appendices de la tête et du corps
-Outre les sclérites, beaucoup d'hétérotardigrades, et notamment des espèces d'arthrotardigrades, se distinguent par de nombreux appendices sur la tête et le corps. Particulièrement remarquables sont les cirrhes sur la tête, qui servent sans doute à la perception du toucher. Le cirrhe comprend une base, le cirrhiphore, un segment court et large, le col ou scapus (colonne), et le poil sensitif proprement dit, long et fin, que l'on appelle flagellum (fouet). Outre les cirrhes, on trouve aussi sur la tête des hétérotardigrades des structures à la fonction vraisemblablement chimiosensible, les clavae (massues), vraisemblablement évoluées à partir des cirrhes, mais plus larges et creuses à l'intérieur. Les forme, nombre et arrangement des cirrhes et clavae est un caractère important pour la détermination de l’espèce au sein des hétérotardigrades. D'autres signes caractéristiques sont de longs filaments implantés sur le côté du corps, ou à l'arrière, et que l'on désigne par alae (ailes), ainsi que des excroissances de grande surface de la cuticule, que l’on trouve chez de nombreuses espèces marines, et qui servent probablement à la dissémination des animaux par les  courants marins.
-Extrémités
-Les pattes ont la même structure fondamentale que chez tous les tardigrades ; cependant il se trouve souvent sur chaque patte de la quatrième paire une couronne de petites dents de cuticule, dont on ne connaît pas la fonction. Souvent, les griffes des hétérotardigrades ne se trouvent pas directement sur le bout de la patte, mais au bout d´orteils distincts. Elles sont souvent munies d´éperons, petites excroissances, et chez quelques espèces, elles sont remplacées par des ventouses.
-Cavité corporelle et système digestif
-Les hétérotardigrades ont aussi quelques différences dans leur anatomie interne. Tout d'abord, leur espace interne, l´hémocœle apparaît nettement plus petit que chez la plupart des eutardigrades, l'autre grande classe de tardigrades. Les stylets avec lesquels les animaux peuvent piquer et sucer par exemple des cellules d'algues sont usuellement plus fins et presque toujours rectilignes. Le pharynx musculeux est stabilisé par des bandes dures sur toute la longueur, contrairement aux placoïdes individuelles, structures en bâtonnets, que l'on trouve chez les eutardigrades. La musculature du pharynx est composée de 51 cellules musculaires épithéliales équivalentes ; l'hypothèse ancienne que celles-ci consistaient en 27 cellules épithéliales et 24 cellules proprement musculaires, les premières recouvrant la surface du pharynx et les secondes exerçant la force de succion, a été démontrée fausse par des études au microscope électronique. L'intestin présente souvent cinq ou six anfractuosités, les diverticula.
-Organes excrétoires et reproducteurs
-Les glandes de Malpighi servant à l'excrétion et à l´osmorégulation, comme celles que l'on trouve chez les eutardigrades, n'existent pas chez les hétérotardigrades. L'osmorégulation, c'est-à-dire le réglage du contenu en sel, n'est pas nécessaire chez les formes marines, car le liquide interne au corps est isotonique avec l'eau de mer, c'est-à-dire contient la même quantité de sel. Chez quelques espèces terrestres, on trouve entre les points de départ des deuxième et troisième paires de pattes des organes spéciaux, qui ont probablement une fonction d'excrétion. Quand ils sont présents, ils consistent en une cellule médiale (au milieu) et deux latérales (de côté).
-Une caractéristique des hétérotardigrades est le point de sortie de l'oviducte, appelé gonopore, qui se trouve toujours à l'extérieur du corps, le plus souvent devant l'anus, plus rarement derrière, mais jamais à l'intérieur de l’intestin inférieur ou rectum. Il  est toujours entouré d'une rosette de jusqu'à six pétales. Les magasins spermatiques, où le mâle peut déposer son sperme sont, quand ils existent, en double. Chez le mâle, l'ouverture sexuelle est ovale ou circulaire et légèrement proéminente.
 </t>
         </is>
       </c>
@@ -552,13 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Diffusion et espace vital</t>
+          <t>Caractéristiques</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les hétérotardigrades se trouvent dans le monde entier, aussi bien dans la mer que dans les eaux douces et sur terre, mais on trouve chez les espèces marines des densités de population bien plus faibles que chez les terrestres, ce qui explique que ces dernières soient les mieux étudiées. Certaines espèces, comme celles du genre Batillipes se retrouvent dans le monde entier, et vivent parmi la faune des trous de sable de l’estran sur pratiquement toutes les plages sablonneuses ; d'autres, comme  Moebjergarctus manganis s'est apparemment spécialisée, pour une raison inconnue, sur des galets contenant du manganèse du Pacifique sud.
-Une série d'espèces vivent comme parasites ou commensaux, c'est-à-dire sans dommage pour l'hôte, sur d'autre animaux, comme Echiniscoides sigismundi sur des moules (bivalves) ou cirripèdes, Pleocola limnoriae sur des isopodes, Actinarctus doryphorus sur des oursins et même Echiniscus molluscorum dans l'escargot terrestre Bulimulus exilis. Les parasites ou commensaux terrestres sont par ailleurs rares, parce que les hétérotardigrades actifs préfèrent l'humidité, qui n'est pas toujours garantie sur terre ; Echiniscus molluscorum est pour cette raison un endo-parasite ou commensal. Une espèce indubitablement ectoparasitique est par contre la forme marine Tetrakentron synaptae, qui pique et suce des cellules isolées de concombre de mer (holothurie).
+          <t>Cuticule</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un des caractères les plus remarquables de bien des hétérotardigrades sont des indurations de l'extérieur de la peau, la cuticule sans cellules, que l'on trouve en particulier dans l'ordre limno-terrestre des Echiniscoidea, mais en partie aussi chez d'autres espèces de l’ordre des arthrotardigrades. Ces indurations forment un arrangement de petites plaques sur le dos, les sclérites, que l'on peut considérer comme un blindage du corps, et qui portent souvent des protubérances épineuses. Le nombre et l'agencement exacts des plaques, qui peuvent aussi en partie se joindre, est un critère important pour la détermination des espèces. Au sein du genre Testechiniscus, on trouve en plus des plaques ventrales, que l'on appelle alors sternites. 
+La structure fine microscopique de la cuticule est aussi typique des hétérotardigrades : dans une couche nommée épicuticule, on trouve des « piliers » caractéristiques, entourés d'espaces vides, si bien que la coupe présente une structure en nid d'abeilles, ce qui raidit encore la peau externe. Les hétérotardigrades marins sont incolores, tandis que les terrestres peuvent souvent être colorés par leur nourriture ou des pigments spéciaux.
 </t>
         </is>
       </c>
@@ -584,10 +592,195 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appendices de la tête et du corps</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre les sclérites, beaucoup d'hétérotardigrades, et notamment des espèces d'arthrotardigrades, se distinguent par de nombreux appendices sur la tête et le corps. Particulièrement remarquables sont les cirrhes sur la tête, qui servent sans doute à la perception du toucher. Le cirrhe comprend une base, le cirrhiphore, un segment court et large, le col ou scapus (colonne), et le poil sensitif proprement dit, long et fin, que l'on appelle flagellum (fouet). Outre les cirrhes, on trouve aussi sur la tête des hétérotardigrades des structures à la fonction vraisemblablement chimiosensible, les clavae (massues), vraisemblablement évoluées à partir des cirrhes, mais plus larges et creuses à l'intérieur. Les forme, nombre et arrangement des cirrhes et clavae est un caractère important pour la détermination de l’espèce au sein des hétérotardigrades. D'autres signes caractéristiques sont de longs filaments implantés sur le côté du corps, ou à l'arrière, et que l'on désigne par alae (ailes), ainsi que des excroissances de grande surface de la cuticule, que l’on trouve chez de nombreuses espèces marines, et qui servent probablement à la dissémination des animaux par les  courants marins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Heterotardigrada</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heterotardigrada</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Extrémités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pattes ont la même structure fondamentale que chez tous les tardigrades ; cependant il se trouve souvent sur chaque patte de la quatrième paire une couronne de petites dents de cuticule, dont on ne connaît pas la fonction. Souvent, les griffes des hétérotardigrades ne se trouvent pas directement sur le bout de la patte, mais au bout d´orteils distincts. Elles sont souvent munies d´éperons, petites excroissances, et chez quelques espèces, elles sont remplacées par des ventouses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heterotardigrada</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heterotardigrada</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cavité corporelle et système digestif</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hétérotardigrades ont aussi quelques différences dans leur anatomie interne. Tout d'abord, leur espace interne, l´hémocœle apparaît nettement plus petit que chez la plupart des eutardigrades, l'autre grande classe de tardigrades. Les stylets avec lesquels les animaux peuvent piquer et sucer par exemple des cellules d'algues sont usuellement plus fins et presque toujours rectilignes. Le pharynx musculeux est stabilisé par des bandes dures sur toute la longueur, contrairement aux placoïdes individuelles, structures en bâtonnets, que l'on trouve chez les eutardigrades. La musculature du pharynx est composée de 51 cellules musculaires épithéliales équivalentes ; l'hypothèse ancienne que celles-ci consistaient en 27 cellules épithéliales et 24 cellules proprement musculaires, les premières recouvrant la surface du pharynx et les secondes exerçant la force de succion, a été démontrée fausse par des études au microscope électronique. L'intestin présente souvent cinq ou six anfractuosités, les diverticula.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heterotardigrada</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heterotardigrada</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Organes excrétoires et reproducteurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les glandes de Malpighi servant à l'excrétion et à l´osmorégulation, comme celles que l'on trouve chez les eutardigrades, n'existent pas chez les hétérotardigrades. L'osmorégulation, c'est-à-dire le réglage du contenu en sel, n'est pas nécessaire chez les formes marines, car le liquide interne au corps est isotonique avec l'eau de mer, c'est-à-dire contient la même quantité de sel. Chez quelques espèces terrestres, on trouve entre les points de départ des deuxième et troisième paires de pattes des organes spéciaux, qui ont probablement une fonction d'excrétion. Quand ils sont présents, ils consistent en une cellule médiale (au milieu) et deux latérales (de côté).
+Une caractéristique des hétérotardigrades est le point de sortie de l'oviducte, appelé gonopore, qui se trouve toujours à l'extérieur du corps, le plus souvent devant l'anus, plus rarement derrière, mais jamais à l'intérieur de l’intestin inférieur ou rectum. Il  est toujours entouré d'une rosette de jusqu'à six pétales. Les magasins spermatiques, où le mâle peut déposer son sperme sont, quand ils existent, en double. Chez le mâle, l'ouverture sexuelle est ovale ou circulaire et légèrement proéminente.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heterotardigrada</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heterotardigrada</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Diffusion et espace vital</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hétérotardigrades se trouvent dans le monde entier, aussi bien dans la mer que dans les eaux douces et sur terre, mais on trouve chez les espèces marines des densités de population bien plus faibles que chez les terrestres, ce qui explique que ces dernières soient les mieux étudiées. Certaines espèces, comme celles du genre Batillipes se retrouvent dans le monde entier, et vivent parmi la faune des trous de sable de l’estran sur pratiquement toutes les plages sablonneuses ; d'autres, comme  Moebjergarctus manganis s'est apparemment spécialisée, pour une raison inconnue, sur des galets contenant du manganèse du Pacifique sud.
+Une série d'espèces vivent comme parasites ou commensaux, c'est-à-dire sans dommage pour l'hôte, sur d'autre animaux, comme Echiniscoides sigismundi sur des moules (bivalves) ou cirripèdes, Pleocola limnoriae sur des isopodes, Actinarctus doryphorus sur des oursins et même Echiniscus molluscorum dans l'escargot terrestre Bulimulus exilis. Les parasites ou commensaux terrestres sont par ailleurs rares, parce que les hétérotardigrades actifs préfèrent l'humidité, qui n'est pas toujours garantie sur terre ; Echiniscus molluscorum est pour cette raison un endo-parasite ou commensal. Une espèce indubitablement ectoparasitique est par contre la forme marine Tetrakentron synaptae, qui pique et suce des cellules isolées de concombre de mer (holothurie).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heterotardigrada</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heterotardigrada</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des aspects du mode de vie des hétérotardigrades ne sont  pas spécifiques de cet ordre, et sont donc traités dans l'article général sur les tardigrades.
 L'anhydrobiose, la grande résistance à la dessication par la formation de structures de survie spéciales, les barillets, est souvent considérée comme une propriété caractéristique des tardigrades, mais elle n'existe en fait qu'au sein de l’ordre des Echiniscoidea. À une exception près, tous les arthrotardigrades vivent en mer, qui offre des conditions d'environnement constantes, si bien que ces espèces n'ont jamais eu à développer la faculté de former des barillets.
@@ -598,34 +791,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Heterotardigrada</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heterotardigrada</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Heterotardigrada</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heterotardigrada</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Formes modernes
-Les rapports avec l'autre grande classe de tardigrades, les eutardigrades sont encore peu clairs. On part souvent de l'hypothèse que des prédécesseurs marins de l’ordre des arthrotardigrades auraient donné le jour à des formes terrestres et dulcicoles de l’ordre des Echiniscoidea, et en particulier de la famille des Echiniscidae, dont se seraient développés à leur tour les eutardigrades :
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Formes modernes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Les rapports avec l'autre grande classe de tardigrades, les eutardigrades sont encore peu clairs. On part souvent de l'hypothèse que des prédécesseurs marins de l’ordre des arthrotardigrades auraient donné le jour à des formes terrestres et dulcicoles de l’ordre des Echiniscoidea, et en particulier de la famille des Echiniscidae, dont se seraient développés à leur tour les eutardigrades :
 Tardigrades (hétérotardigrades, arthrotardigrades)
 o Diverses classes
 o Echiniscoidea
@@ -639,41 +837,77 @@
 o Hétérotardigrades
 o Arthrotardigrades
 o Echiniscoidea
-o Eutardigrades
-Formes fossiles
-Il est très probable que les hétérotardigrades sont déjà apparus très tôt sur la terre, probablement pendant l'ère géologique paléozoïque, bien que l'on n'ait pas trouvé de fossile caractéristique des hétérotardigrades pour cette époque.
+o Eutardigrades</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Heterotardigrada</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heterotardigrada</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Formes fossiles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est très probable que les hétérotardigrades sont déjà apparus très tôt sur la terre, probablement pendant l'ère géologique paléozoïque, bien que l'on n'ait pas trouvé de fossile caractéristique des hétérotardigrades pour cette époque.
 On a trouvé un juvénile mal conservé dans de l’ambre jaune du crétacé, et que l'on peut peut-être ranger chez les hétérotardigrades, sinon, il n'y a pas d'indications sur l'histoire de ce taxon.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Heterotardigrada</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heterotardigrada</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Heterotardigrada</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heterotardigrada</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>La monophylie des hétérotardigrades est contestée, comme exposé (voir supra), c'est-à-dire qu'il n'est pas actuellement clair de savoir si toutes les espèces forment un groupe de parenté naturelle, et non si au contraire, quelques formes ne sont pas plus rapprochées d'espèces d'eutardigrades.
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La monophylie des hétérotardigrades est contestée, comme exposé (voir supra), c'est-à-dire qu'il n'est pas actuellement clair de savoir si toutes les espèces forment un groupe de parenté naturelle, et non si au contraire, quelques formes ne sont pas plus rapprochées d'espèces d'eutardigrades.
 Classiquement, on distingue dans tous les cas deux ordres bien distincts :
 Les arthrotardigrades paraissent exclusivement dans la mer, à l'exception de Styraconyx hallasi, et passent souvent pour les ancêtres de tous les tardigrades. Ils se caractérisent par un nombre particulièrement élevé de caractères primitifs et par de nombreuses structures de la tête comme les cirrhes et les clavae, que l'on utilise pour la subdivision de l’ordre en familles. Leurs quatre à six griffes ne sont fréquemment pas insérées directement sur le bout de la patte, mais au bout d'un « orteil » fin. La plupart des genres sont monotypiques, c'est-à-dire ne comprennent qu'une seule espèce, ce que l'on interprète souvent comme un signe de leur grand âge.
 Les Echiniscoidea vivent principalement en eau douce ou sur terre, rarement en mer. Les premières formes se caractérisent par des blindages de leur cuticule sur le dos et parfois sur le ventre, les sclérites et les sternites. L'arrangement et la structure de ces dernières est un auxiliaire précieux pour une classification plus poussée des Echiniscoidea. Ils ont aussi des appendices sur la tête, mais le plus souvent pas très apparents ; les griffes, jusqu'à 13, poussent directement sur le bout des pattes.
@@ -685,38 +919,75 @@
 o Echiniscoidea
 o diverses familles
 Si cette hypothèse devait se vérifier, les arthrotardigrades apparaîtraient comme un groupe paraphylétique, c'est-à-dire qu'un sous-groupe serait plus proche parent avec des espèces hors du taxon qu'avec les autres arthrotardigrades. Les systématiciens travaillant sur une base cladistique ne le reconnaîtraient plus comme un clade. Les premiers travaux de phylogénie moléculaire parlent cependant à l'encontre de cette hypothèse.
-Liste des ordres
-Selon Degma, Bertolani et Guidetti, 2013[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Heterotardigrada</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heterotardigrada</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Liste des ordres</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Selon Degma, Bertolani et Guidetti, 2013 :
 Arthrotardigrada Marcus, 1927
 Echiniscoidea Richters, 1926</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Heterotardigrada</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heterotardigrada</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Heterotardigrada</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heterotardigrada</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Marcus, 1927 : Zur Anatomie und Ökologie mariner Tardigraden. Zoologische Jahrbücher, Abteilung für Systematik, vol. 53, p. 487–558.</t>
         </is>
